--- a/data/financial_statements/sofp/BLK.xlsx
+++ b/data/financial_statements/sofp/BLK.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2533 +593,2536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
         <v>6797000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6481000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7262000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>9323000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7361000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6416000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6267000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8664000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6507000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5466000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4406000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4829000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4607000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4023000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4061000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>6488000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>6580000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>6724000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>6081000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>7038000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6247000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5582000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>5814000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>6175000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5615000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>5237000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>5084000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>6231000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5749000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4971000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4572000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>6001000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>6324000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5497000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4585000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>4551000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4080000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3793000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4232000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>3361000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3471000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3801000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3789000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4015000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3790000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3825000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3535000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3706000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2990000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3095000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3179000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3026000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2863000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2771000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2657000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2682000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2567000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2677000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2699000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3183000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2984000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>3227000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2115000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>2601000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2885000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2526000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2237000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>2542000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>2347000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2836000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>2120000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2631000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>4207000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2868000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2247000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>4311000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2249000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>2618000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>10158000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9952000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>11063000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>13112000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11376000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10206000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10092000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12199000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10213000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8456000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>7501000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8008000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7633000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6886000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>6832000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>9145000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9262000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>9291000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>8758000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>9737000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>9430000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>8566000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>9041000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8290000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>8216000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>8122000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>7610000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>8468000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8291000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>7318000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>7408000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>8121000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8955000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>9704000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>7453000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>6798000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>8391000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>6042000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>6850000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>965000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>900000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>851000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>762000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>703000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>741000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>671000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>681000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>693000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>697000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>714000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>715000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>669000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>659000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>656000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>643000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>588000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>581000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>589000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>592000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>571000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>549000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>546000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>559000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>564000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>576000000</v>
-      </c>
-      <c r="AB5">
-        <v>581000000</v>
       </c>
       <c r="AC5">
         <v>581000000</v>
       </c>
       <c r="AD5">
+        <v>581000000</v>
+      </c>
+      <c r="AE5">
         <v>543000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>545000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>537000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>467000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>468000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>496000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>508000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>525000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>523000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>524000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>529000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>6907000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7302000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7615000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7262000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7101000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7595000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7145000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6919000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6307000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5171000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5240000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5489000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5015000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4420000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4509000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4476000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3977000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>3696000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3687000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3474000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>3214000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3136000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2954000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2603000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3142000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2660000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2760000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2608000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2288000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1436000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2204000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>5241000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1951000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2095000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>2092000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2151000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1878000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1773000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1711000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>33683000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>33723000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>33764000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33804000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>33836000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>33876000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>33864000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>32814000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>32844000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>32873000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>32903000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>32931000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>32959000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>32988000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>31348000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>31365000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>31380000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>30582000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>30595000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>30609000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>30626000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>30622000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>30451000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>30481000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>30511000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>30540000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>30466000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>30495000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>30325000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>30364000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>30404000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>30305000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>30344000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>30389000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>30434000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>30481000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>30451000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>30221000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>30266000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>62226000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>72546000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>88451000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>96087000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>114822000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>124544000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>122087000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>123720000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>115061000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>110145000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>102662000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>121479000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>117596000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>118394000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>121663000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>113944000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>129655000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>151399000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>172388000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>175829000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>176726000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>174615000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>187594000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>178244000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>184306000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>180157000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>181541000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>183109000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>180769000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>197345000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>202161000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>195658000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>181094000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>189009000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>175810000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>179918000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>171474000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>155185000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>161382000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>103781000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>114471000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>130681000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>137915000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>156462000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>166756000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>163767000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>164134000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>154905000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>148886000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>141519000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>160614000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>156239000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>156461000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>158176000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>150428000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>165600000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>186258000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>207259000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>210504000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>211137000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>208922000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>221545000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>211887000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>218523000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>213933000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>215348000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>216793000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>213925000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>229690000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>235306000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>231671000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>213857000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>221989000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>208844000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>213075000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>204326000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>187703000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>193888000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>115430000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>125966000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>143327000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>152648000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>169636000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>176962000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>173859000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>176982000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>165118000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>157342000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>149020000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>168622000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>163872000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>163347000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>165008000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>159573000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>174862000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>195549000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>216017000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>220241000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>220567000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>217488000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>230586000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>220177000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>226739000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>222055000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>222958000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>225261000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>222216000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>237008000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>242714000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>239792000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>222812000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>231693000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>216297000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>219873000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>212717000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>193745000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>200738000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11">
         <v>6491000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>7264000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>7227000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4955000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5014000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>1601000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1324000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1451000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1397000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1402000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1238000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1196000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1028000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>988000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>914000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>982000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1167000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1782000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1277000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1225000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1292000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1403000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1216000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1421000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1161000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1652000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1520000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2000000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>880000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1354000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1615000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1385000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1068000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1343000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1284000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1714000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1035000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1743000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>3244000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1615000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1084000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>3322000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1271000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1657000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>1747000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1408000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1104000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2951000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2343000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1704000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1077000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2499000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1847000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1189000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>858000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2057000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1500000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1078000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>730000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1988000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1611000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1185000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>788000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2153000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1614000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1140000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>769000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1880000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1481000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1064000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>672000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1971000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1561000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1137000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>684000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1865000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1487000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1079000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>668000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1747000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1322000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>948000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>602000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>750000000</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E14">
         <v>750000000</v>
       </c>
-      <c r="H14">
+      <c r="F14">
         <v>750000000</v>
       </c>
       <c r="I14">
         <v>750000000</v>
       </c>
+      <c r="J14">
+        <v>750000000</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>3348000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2732000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2555000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4348000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3745000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9433000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2273000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3527000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10062000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2103000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1840000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3224000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3282000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2355000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1955000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3280000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3014000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2401000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2209000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>8328000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3266000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2660000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2769000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2760000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2835000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2679000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2057000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3039000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2904000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2421000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2398000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>2900000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>3230000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>4323000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2283000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2831000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>4644000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2219000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2259000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>12458000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>13914000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>14513000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>14527000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>20580000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>16170000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>22943000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>23771000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>15137000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>21557000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>20710000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>20421000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>24817000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>24552000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>25891000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>25634000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>24610000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>28421000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>32708000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>24190000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>32750000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>31534000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>35864000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>32923000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>35072000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>35858000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>35544000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>36266000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>35734000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>37384000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>44269000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>41965000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>29792000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>32689000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>25942000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>29096000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>28968000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>26509000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>28958000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1563000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1700000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>113000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>122000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>104000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>107000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>111000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>123000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>105000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>108000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>114000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>2695000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2801000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2857000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2758000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3659000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3907000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3794000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3673000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3742000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3664000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3610000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3734000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3792000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>3825000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>3654000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3571000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3555000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3511000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3516000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3527000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4966000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>4981000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>5030000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>4840000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>4832000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>4899000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>4937000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>4851000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>4921000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>4999000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>5077000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>4989000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>5056000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>5177000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>5241000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>5085000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>5237000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>5318000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>5379000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>828000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1103000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1263000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1087000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1437000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2242000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2411000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2322000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2084000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1248000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1440000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1316000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1137000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>710000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1009000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1107000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>603000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>686000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>561000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>416000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>320000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>271000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>309000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>194000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>600000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>520000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>517000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>464000000</v>
-      </c>
-      <c r="AD19">
-        <v>258000000</v>
       </c>
       <c r="AE19">
         <v>258000000</v>
       </c>
       <c r="AF19">
+        <v>258000000</v>
+      </c>
+      <c r="AG19">
         <v>180000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>35000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>49000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>47000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>88000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>54000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>41000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>70000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>36000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>57039000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>66399000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>82701000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>90250000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>101340000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>109062000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>107009000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>107600000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>100161000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>95984000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>88350000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>106314000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>98377000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>99955000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>101137000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>93548000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>110610000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>128346000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>145001000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>151932000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>149168000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>148426000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>157408000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>150310000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>154439000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>149464000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>151434000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>152061000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>150176000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>164074000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>163314000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>162418000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>157450000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>162438000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>156130000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>156191000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>147682000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>133874000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>138475000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>74793000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>86032000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>103176000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>110494000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>128962000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>131381000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>136157000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>138121000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>121124000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>122453000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>114110000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>131785000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>128123000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>129042000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>131691000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>123860000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>139378000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>160964000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>181786000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>180065000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>187204000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>185212000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>198611000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>188267000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>194943000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>190741000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>192432000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>193642000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>191089000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>206715000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>212840000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>209407000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>192347000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>200351000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>187401000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>190426000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>181928000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>165771000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>172848000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>78141000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>88764000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>105731000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>114842000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>132707000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>140814000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>138430000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>141648000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>131186000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>124556000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>115950000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>135009000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>131405000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>131397000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>133646000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>127140000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>142392000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>163365000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>183995000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>188393000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>190470000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>187872000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>201380000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>191027000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>197778000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>193420000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>194489000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>196681000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>193993000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>209136000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>215238000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>212307000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>195577000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>204674000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>189684000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>193257000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>186572000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>167990000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>175107000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>19609000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>19469000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>19302000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>19640000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>19462000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>19297000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>19121000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>19293000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>19150000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>19007000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>18885000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>19186000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>19058000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>18947000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>18827000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>19168000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>19048000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>18953000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>18856000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>19256000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>19145000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>19038000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>18929000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>19337000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>19236000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>19132000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>19027000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>19405000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>19327000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>19252000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>19126000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>19386000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>19270000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>19181000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>19087000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>19473000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>19391000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>19302000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>19210000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2000000</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C24">
         <v>2000000</v>
@@ -3121,769 +3238,769 @@
       <c r="AN24">
         <v>2000000</v>
       </c>
+      <c r="AO24">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>29348000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>28678000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>28338000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>27688000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>26672000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>25620000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>24872000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>24334000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>23340000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>22532000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>21872000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>21662000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>20873000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>20267000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>19779000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>19282000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>18852000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>18138000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>17529000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>16939000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>15065000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>14523000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>14073000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>13660000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>13183000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>12684000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>12271000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>12033000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>11533000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>11052000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>10613000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10145000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>9660000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>9113000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>8604000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>8230000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>7678000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>7233000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>6822000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>10325000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>9969000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>9478000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>9087000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8793000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>8498000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>8204000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8009000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>8018000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>8030000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>6936000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>6732000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>6742000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>6659000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>6676000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>5387000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>4871000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>4388000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>4108000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3967000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3697000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3433000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3171000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3185000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2919000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>2690000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>2432000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>2489000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>2318000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2191000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1927000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1894000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1657000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1416000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1180000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1210000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>993000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>750000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>523000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>37289000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>37202000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>37596000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>37806000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>36929000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>36148000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>35429000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>35334000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>33932000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>32786000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>33070000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>33613000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>32467000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>31950000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>31362000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>32433000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>32470000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>32184000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>32022000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>31848000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>30097000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>29616000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>29206000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>29150000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>28961000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>28635000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>28469000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>28580000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>28223000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>27872000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>27476000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>27485000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>27235000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>27019000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>26613000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>26616000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>26145000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>25755000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>25631000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>37289000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>37202000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>37596000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>37806000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>36929000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>36148000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>35429000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>35334000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>33932000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>32786000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>33070000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>33613000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>32467000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>31950000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>31362000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>32433000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>32470000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>32184000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>32022000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>31848000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>30097000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>29616000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>29206000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>29150000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>28961000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>28635000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>28469000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>28580000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>28223000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>27872000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>27476000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>27485000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>27235000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>27019000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>26613000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>26616000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>26145000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>25755000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>25631000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>115430000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>125966000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>143327000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>152648000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>169636000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>176962000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>173859000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>176982000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>165118000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>157342000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>149020000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>168622000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>163872000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>163347000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>165008000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>159573000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>174862000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>195549000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>216017000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>220241000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>220567000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>217488000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>230586000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>220177000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>226739000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>222055000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>222958000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>225261000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>222216000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>237008000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>242714000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>239792000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>222812000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>231693000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>216297000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>219873000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>212717000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>193745000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>200738000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>150462000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>150966000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>151726000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>151684000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>151988000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>152298800</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>152635900</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>152533000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>152496400</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>152460200</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>154262600</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>154375800</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>154349900</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>154543700</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>154500000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>157553500</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>158837700</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>159812900</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>160308400</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>159977100</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>160528100</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>161137500</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>161798900</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>161534000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>162271200</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>162876000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>163587200</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>163461100</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>163922000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>164244000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>164950000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>164787000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>165475000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>166228000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>167003000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>166589000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>167278000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>168150000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>168967000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31">
         <v>823200</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>966600</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1069700</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1586800</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2135100</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>2135200</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>2135100</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>2135200</v>
-      </c>
-      <c r="AH31">
-        <v>2135100</v>
       </c>
       <c r="AI31">
         <v>2135100</v>
@@ -3892,10 +4009,10 @@
         <v>2135100</v>
       </c>
       <c r="AK31">
+        <v>2135100</v>
+      </c>
+      <c r="AL31">
         <v>2135200</v>
-      </c>
-      <c r="AL31">
-        <v>2135100</v>
       </c>
       <c r="AM31">
         <v>2135100</v>
@@ -3903,370 +4020,373 @@
       <c r="AN31">
         <v>2135100</v>
       </c>
+      <c r="AO31">
+        <v>2135100</v>
+      </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>3606000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3479000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3832000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>4002000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3093000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2272000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1565000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2520000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1088000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-87000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>167000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>682000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-492000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-1038000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>14000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1068000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1090000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1602000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1427000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>1239000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-529000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-1006000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-1245000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-1331000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-1550000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-1905000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-1997000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-1915000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-2102000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-2492000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-2928000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-2820000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-3109000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-3370000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-3821000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-3865000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-4306000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-4466000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-4635000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>5661000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>7433000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>8001000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5954000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>13219000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>9754000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>17426000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>15857000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>8630000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>16091000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>16304000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>15592000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>20210000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>20529000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>21830000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>19146000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>18030000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>21697000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>26627000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>17152000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>26503000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>25952000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>30050000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>26748000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>29457000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>30621000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>30460000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>30035000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>29985000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>32413000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>39697000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>35964000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>23468000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>27192000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>21357000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>24545000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>24888000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>22716000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>24726000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>12458000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>13914000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>15263000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>15277000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>20580000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>16170000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>23693000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>24521000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>15137000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>21557000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>20710000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>20421000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>24817000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>24552000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>25891000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>25634000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>24610000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>28421000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>32708000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>24190000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>32750000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>31534000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>35864000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>32923000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>35072000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>35858000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>35544000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>36266000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>35734000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>37384000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>44269000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>41965000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>29792000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>32689000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>25942000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>29096000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>28968000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>26509000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>28958000000</v>
       </c>
     </row>
